--- a/xlsx/import_siteid.xlsx
+++ b/xlsx/import_siteid.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chandra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
   <si>
     <t>site_id</t>
   </si>
@@ -62,14 +62,47 @@
     <t>keterangan</t>
   </si>
   <si>
+    <t>ABC111</t>
+  </si>
+  <si>
+    <t>ABC112</t>
+  </si>
+  <si>
+    <t>ABC113</t>
+  </si>
+  <si>
+    <t>ABC114</t>
+  </si>
+  <si>
+    <t>ABC115</t>
+  </si>
+  <si>
+    <t>300 Site</t>
+  </si>
+  <si>
     <t>58 Site</t>
+  </si>
+  <si>
+    <t>491 Site</t>
+  </si>
+  <si>
+    <t>180 Site</t>
+  </si>
+  <si>
+    <t>236 Site</t>
+  </si>
+  <si>
+    <t>Depok</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +124,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -106,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,19 +176,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -158,32 +185,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -461,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,89 +504,243 @@
     <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2">
-        <v>4</v>
-      </c>
-      <c r="K2" s="5">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2">
+        <v>123000</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2">
+        <v>321000</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
+        <v>132000</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>213000</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2">
+        <v>231000</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="XCoxQgC8jo+uEPRLSQh2Hh3073uhHn9eolQk0ha1miwEbIcEGr3Z67SpbfZY3dnltmh6+5OoSgy1dBvk3Qs9uQ==" saltValue="JeT+Y8rwlmA7OBCjXOCemg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
